--- a/datosCSI.xlsx
+++ b/datosCSI.xlsx
@@ -31,22 +31,22 @@
     <t>Solicitud</t>
   </si>
   <si>
-    <t>51910339920</t>
-  </si>
-  <si>
-    <t>Juan</t>
-  </si>
-  <si>
-    <t>Lima</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>123456789qq</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>51915041603</t>
+  </si>
+  <si>
+    <t>Luis Lopez</t>
+  </si>
+  <si>
+    <t>San Miguel</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>12345678910</t>
+  </si>
+  <si>
+    <t>Mascarillas / A</t>
   </si>
 </sst>
 </file>
